--- a/KYC Update/Consignor/Demo/UID 1.xlsx
+++ b/KYC Update/Consignor/Demo/UID 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>UID</t>
   </si>
@@ -27,67 +27,205 @@
     <t>DD</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Consignor/Consignee</t>
+  </si>
+  <si>
+    <t>GST Verified On</t>
+  </si>
+  <si>
     <t>dd 27</t>
   </si>
   <si>
+    <t>Updated successfully</t>
+  </si>
+  <si>
+    <t>MAHINDRA AND MAHINDRA LTD</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:17:41</t>
+  </si>
+  <si>
     <t>dd 28</t>
   </si>
   <si>
+    <t>INFOSYS LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:17:52</t>
+  </si>
+  <si>
     <t>dd 38</t>
   </si>
   <si>
+    <t>LARSEN &amp; TOUBRO LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:02</t>
+  </si>
+  <si>
     <t>dd 41</t>
   </si>
   <si>
+    <t>MICROSOFT CORPORATION (INDIA) PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:12</t>
+  </si>
+  <si>
     <t>dd 42</t>
   </si>
   <si>
+    <t>APPLE INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:22</t>
+  </si>
+  <si>
     <t>dd 43</t>
   </si>
   <si>
+    <t>HEWLETT PACKARD ENTERPRISE INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:32</t>
+  </si>
+  <si>
     <t>dd 44</t>
   </si>
   <si>
+    <t>ADITYA BIRLA MANAGEMNT CORPORATION PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:41</t>
+  </si>
+  <si>
     <t>dd 45</t>
   </si>
   <si>
+    <t>SUZLON ENERGY LTD</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:18:51</t>
+  </si>
+  <si>
     <t>dd 46</t>
   </si>
   <si>
+    <t>JSW STEEL LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:00</t>
+  </si>
+  <si>
     <t>dd 47</t>
   </si>
   <si>
+    <t>GODREJ CONSUMER PRODUCTS LTD.</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:10</t>
+  </si>
+  <si>
     <t>dd 48</t>
   </si>
   <si>
+    <t>PHILIPS INDIA LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:19</t>
+  </si>
+  <si>
     <t>dd 49</t>
   </si>
   <si>
+    <t>HINDUSTAN UNILEVER LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:29</t>
+  </si>
+  <si>
     <t>dd 50</t>
   </si>
   <si>
+    <t>BAJAJ ELECTRONICS</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:38</t>
+  </si>
+  <si>
     <t>dd 51</t>
   </si>
   <si>
+    <t>WIPRO LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:48</t>
+  </si>
+  <si>
     <t>dd 52</t>
   </si>
   <si>
+    <t>HCL TECHNOLOGIES LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:19:57</t>
+  </si>
+  <si>
     <t>dd 53</t>
   </si>
   <si>
+    <t>TECH MAHINDRA LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:08</t>
+  </si>
+  <si>
     <t>dd 54</t>
   </si>
   <si>
+    <t>Capgemini Technology Services India Limited</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:17</t>
+  </si>
+  <si>
     <t>dd 55</t>
   </si>
   <si>
+    <t>COGNIZANT TECHNOLOGY SOLUTIONS INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:26</t>
+  </si>
+  <si>
     <t>dd 56</t>
   </si>
   <si>
+    <t>Larsen &amp; Toubro Infotech Limited</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:37</t>
+  </si>
+  <si>
     <t>dd 57</t>
   </si>
   <si>
+    <t>IBM INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:46</t>
+  </si>
+  <si>
     <t>dd 58</t>
+  </si>
+  <si>
+    <t>GOOGLE INDIA PRIVATE LIMTED</t>
+  </si>
+  <si>
+    <t>19-03-2025 11:20:55</t>
   </si>
 </sst>
 </file>
@@ -450,188 +588,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/KYC Update/Consignor/Demo/UID 1.xlsx
+++ b/KYC Update/Consignor/Demo/UID 1.xlsx
@@ -45,7 +45,7 @@
     <t>MAHINDRA AND MAHINDRA LTD</t>
   </si>
   <si>
-    <t>19-03-2025 11:17:41</t>
+    <t>19-03-2025 12:39:02</t>
   </si>
   <si>
     <t>dd 28</t>
@@ -54,7 +54,7 @@
     <t>INFOSYS LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:17:52</t>
+    <t>19-03-2025 12:39:11</t>
   </si>
   <si>
     <t>dd 38</t>
@@ -63,7 +63,7 @@
     <t>LARSEN &amp; TOUBRO LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:02</t>
+    <t>19-03-2025 12:39:23</t>
   </si>
   <si>
     <t>dd 41</t>
@@ -72,7 +72,7 @@
     <t>MICROSOFT CORPORATION (INDIA) PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:12</t>
+    <t>19-03-2025 12:39:30</t>
   </si>
   <si>
     <t>dd 42</t>
@@ -81,7 +81,7 @@
     <t>APPLE INDIA PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:22</t>
+    <t>19-03-2025 12:39:40</t>
   </si>
   <si>
     <t>dd 43</t>
@@ -90,7 +90,7 @@
     <t>HEWLETT PACKARD ENTERPRISE INDIA PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:32</t>
+    <t>19-03-2025 12:39:50</t>
   </si>
   <si>
     <t>dd 44</t>
@@ -99,7 +99,7 @@
     <t>ADITYA BIRLA MANAGEMNT CORPORATION PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:41</t>
+    <t>19-03-2025 12:39:58</t>
   </si>
   <si>
     <t>dd 45</t>
@@ -108,7 +108,7 @@
     <t>SUZLON ENERGY LTD</t>
   </si>
   <si>
-    <t>19-03-2025 11:18:51</t>
+    <t>19-03-2025 12:40:07</t>
   </si>
   <si>
     <t>dd 46</t>
@@ -117,7 +117,7 @@
     <t>JSW STEEL LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:00</t>
+    <t>19-03-2025 12:40:17</t>
   </si>
   <si>
     <t>dd 47</t>
@@ -126,7 +126,7 @@
     <t>GODREJ CONSUMER PRODUCTS LTD.</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:10</t>
+    <t>19-03-2025 12:40:25</t>
   </si>
   <si>
     <t>dd 48</t>
@@ -135,7 +135,7 @@
     <t>PHILIPS INDIA LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:19</t>
+    <t>19-03-2025 12:40:34</t>
   </si>
   <si>
     <t>dd 49</t>
@@ -144,7 +144,7 @@
     <t>HINDUSTAN UNILEVER LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:29</t>
+    <t>19-03-2025 12:40:43</t>
   </si>
   <si>
     <t>dd 50</t>
@@ -153,7 +153,7 @@
     <t>BAJAJ ELECTRONICS</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:38</t>
+    <t>19-03-2025 12:40:52</t>
   </si>
   <si>
     <t>dd 51</t>
@@ -162,7 +162,7 @@
     <t>WIPRO LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:48</t>
+    <t>19-03-2025 12:41:00</t>
   </si>
   <si>
     <t>dd 52</t>
@@ -171,7 +171,7 @@
     <t>HCL TECHNOLOGIES LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:19:57</t>
+    <t>19-03-2025 12:41:09</t>
   </si>
   <si>
     <t>dd 53</t>
@@ -180,7 +180,7 @@
     <t>TECH MAHINDRA LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:08</t>
+    <t>19-03-2025 12:41:17</t>
   </si>
   <si>
     <t>dd 54</t>
@@ -189,7 +189,7 @@
     <t>Capgemini Technology Services India Limited</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:17</t>
+    <t>19-03-2025 12:41:26</t>
   </si>
   <si>
     <t>dd 55</t>
@@ -198,7 +198,7 @@
     <t>COGNIZANT TECHNOLOGY SOLUTIONS INDIA PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:26</t>
+    <t>19-03-2025 12:41:34</t>
   </si>
   <si>
     <t>dd 56</t>
@@ -207,7 +207,7 @@
     <t>Larsen &amp; Toubro Infotech Limited</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:37</t>
+    <t>19-03-2025 12:41:42</t>
   </si>
   <si>
     <t>dd 57</t>
@@ -216,7 +216,7 @@
     <t>IBM INDIA PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:46</t>
+    <t>19-03-2025 12:41:51</t>
   </si>
   <si>
     <t>dd 58</t>
@@ -225,7 +225,7 @@
     <t>GOOGLE INDIA PRIVATE LIMTED</t>
   </si>
   <si>
-    <t>19-03-2025 11:20:55</t>
+    <t>19-03-2025 12:42:00</t>
   </si>
 </sst>
 </file>
@@ -590,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
